--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>370.522674056162</v>
+        <v>372.1085406666666</v>
       </c>
       <c r="H2">
-        <v>370.522674056162</v>
+        <v>1116.325622</v>
       </c>
       <c r="I2">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="J2">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N2">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O2">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P2">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q2">
-        <v>83474.43644597605</v>
+        <v>85430.40931903978</v>
       </c>
       <c r="R2">
-        <v>83474.43644597605</v>
+        <v>768873.6838713581</v>
       </c>
       <c r="S2">
-        <v>0.4132761254907822</v>
+        <v>0.4074489560293985</v>
       </c>
       <c r="T2">
-        <v>0.4132761254907822</v>
+        <v>0.4074489560293985</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>370.522674056162</v>
+        <v>372.1085406666666</v>
       </c>
       <c r="H3">
-        <v>370.522674056162</v>
+        <v>1116.325622</v>
       </c>
       <c r="I3">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="J3">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N3">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O3">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P3">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q3">
-        <v>50177.79608065471</v>
+        <v>50505.66695830215</v>
       </c>
       <c r="R3">
-        <v>50177.79608065471</v>
+        <v>454551.0026247193</v>
       </c>
       <c r="S3">
-        <v>0.2484267763017548</v>
+        <v>0.2408800500870641</v>
       </c>
       <c r="T3">
-        <v>0.2484267763017548</v>
+        <v>0.2408800500870641</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>370.522674056162</v>
+        <v>372.1085406666666</v>
       </c>
       <c r="H4">
-        <v>370.522674056162</v>
+        <v>1116.325622</v>
       </c>
       <c r="I4">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="J4">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N4">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O4">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P4">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q4">
-        <v>31464.3973439299</v>
+        <v>33575.90744589802</v>
       </c>
       <c r="R4">
-        <v>31464.3973439299</v>
+        <v>302183.1670130822</v>
       </c>
       <c r="S4">
-        <v>0.1557780415039706</v>
+        <v>0.1601358175106145</v>
       </c>
       <c r="T4">
-        <v>0.1557780415039706</v>
+        <v>0.1601358175106145</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>370.522674056162</v>
+        <v>372.1085406666666</v>
       </c>
       <c r="H5">
-        <v>370.522674056162</v>
+        <v>1116.325622</v>
       </c>
       <c r="I5">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="J5">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.583017178823954</v>
+        <v>0.5972149999999999</v>
       </c>
       <c r="N5">
-        <v>0.583017178823954</v>
+        <v>1.791645</v>
       </c>
       <c r="O5">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="P5">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="Q5">
-        <v>216.021084118531</v>
+        <v>222.2288021142433</v>
       </c>
       <c r="R5">
-        <v>216.021084118531</v>
+        <v>2000.05921902819</v>
       </c>
       <c r="S5">
-        <v>0.001069505353613303</v>
+        <v>0.001059890665898192</v>
       </c>
       <c r="T5">
-        <v>0.001069505353613303</v>
+        <v>0.001059890665898192</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.1838909844147</v>
+        <v>69.70494733333334</v>
       </c>
       <c r="H6">
-        <v>65.1838909844147</v>
+        <v>209.114842</v>
       </c>
       <c r="I6">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="J6">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N6">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O6">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P6">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q6">
-        <v>14685.17029123893</v>
+        <v>16003.18598326173</v>
       </c>
       <c r="R6">
-        <v>14685.17029123893</v>
+        <v>144028.6738493556</v>
       </c>
       <c r="S6">
-        <v>0.07270525610632175</v>
+        <v>0.07632506356926798</v>
       </c>
       <c r="T6">
-        <v>0.07270525610632175</v>
+        <v>0.07632506356926798</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.1838909844147</v>
+        <v>69.70494733333334</v>
       </c>
       <c r="H7">
-        <v>65.1838909844147</v>
+        <v>209.114842</v>
       </c>
       <c r="I7">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="J7">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N7">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O7">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P7">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q7">
-        <v>8827.486733143405</v>
+        <v>9460.935374006829</v>
       </c>
       <c r="R7">
-        <v>8827.486733143405</v>
+        <v>85148.41836606147</v>
       </c>
       <c r="S7">
-        <v>0.04370427247215819</v>
+        <v>0.04512267086073252</v>
       </c>
       <c r="T7">
-        <v>0.04370427247215819</v>
+        <v>0.04512267086073252</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>65.1838909844147</v>
+        <v>69.70494733333334</v>
       </c>
       <c r="H8">
-        <v>65.1838909844147</v>
+        <v>209.114842</v>
       </c>
       <c r="I8">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="J8">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N8">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O8">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P8">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q8">
-        <v>5535.347739734164</v>
+        <v>6289.581142083282</v>
       </c>
       <c r="R8">
-        <v>5535.347739734164</v>
+        <v>56606.23027874954</v>
       </c>
       <c r="S8">
-        <v>0.02740512143022405</v>
+        <v>0.02999731934601515</v>
       </c>
       <c r="T8">
-        <v>0.02740512143022405</v>
+        <v>0.02999731934601515</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>65.1838909844147</v>
+        <v>69.70494733333334</v>
       </c>
       <c r="H9">
-        <v>65.1838909844147</v>
+        <v>209.114842</v>
       </c>
       <c r="I9">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="J9">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.583017178823954</v>
+        <v>0.5972149999999999</v>
       </c>
       <c r="N9">
-        <v>0.583017178823954</v>
+        <v>1.791645</v>
       </c>
       <c r="O9">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="P9">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="Q9">
-        <v>38.00332822650163</v>
+        <v>41.62884012167667</v>
       </c>
       <c r="R9">
-        <v>38.00332822650163</v>
+        <v>374.65956109509</v>
       </c>
       <c r="S9">
-        <v>0.0001881518332306176</v>
+        <v>0.0001985432070792113</v>
       </c>
       <c r="T9">
-        <v>0.0001881518332306176</v>
+        <v>0.0001985432070792113</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.307342147356449</v>
+        <v>0.387356</v>
       </c>
       <c r="H10">
-        <v>0.307342147356449</v>
+        <v>1.162068</v>
       </c>
       <c r="I10">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="J10">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N10">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O10">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P10">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q10">
-        <v>69.24060075952875</v>
+        <v>88.93099194363734</v>
       </c>
       <c r="R10">
-        <v>69.24060075952875</v>
+        <v>800.3789274927361</v>
       </c>
       <c r="S10">
-        <v>0.0003428053956024231</v>
+        <v>0.0004241445185024797</v>
       </c>
       <c r="T10">
-        <v>0.0003428053956024231</v>
+        <v>0.0004241445185024797</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.307342147356449</v>
+        <v>0.387356</v>
       </c>
       <c r="H11">
-        <v>0.307342147356449</v>
+        <v>1.162068</v>
       </c>
       <c r="I11">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="J11">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N11">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O11">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P11">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q11">
-        <v>41.62161367405245</v>
+        <v>52.57517899280133</v>
       </c>
       <c r="R11">
-        <v>41.62161367405245</v>
+        <v>473.176610935212</v>
       </c>
       <c r="S11">
-        <v>0.0002060657126690402</v>
+        <v>0.0002507503120308875</v>
       </c>
       <c r="T11">
-        <v>0.0002060657126690402</v>
+        <v>0.0002507503120308875</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.307342147356449</v>
+        <v>0.387356</v>
       </c>
       <c r="H12">
-        <v>0.307342147356449</v>
+        <v>1.162068</v>
       </c>
       <c r="I12">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="J12">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N12">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O12">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P12">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q12">
-        <v>26.09917320065057</v>
+        <v>34.95170839484668</v>
       </c>
       <c r="R12">
-        <v>26.09917320065057</v>
+        <v>314.5653755536201</v>
       </c>
       <c r="S12">
-        <v>0.0001292151901601449</v>
+        <v>0.0001666975168495459</v>
       </c>
       <c r="T12">
-        <v>0.0001292151901601449</v>
+        <v>0.0001666975168495459</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.307342147356449</v>
+        <v>0.387356</v>
       </c>
       <c r="H13">
-        <v>0.307342147356449</v>
+        <v>1.162068</v>
       </c>
       <c r="I13">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="J13">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.583017178823954</v>
+        <v>0.5972149999999999</v>
       </c>
       <c r="N13">
-        <v>0.583017178823954</v>
+        <v>1.791645</v>
       </c>
       <c r="O13">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="P13">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="Q13">
-        <v>0.1791857516854528</v>
+        <v>0.23133481354</v>
       </c>
       <c r="R13">
-        <v>0.1791857516854528</v>
+        <v>2.08201332186</v>
       </c>
       <c r="S13">
-        <v>8.871361862699599E-07</v>
+        <v>1.103320574271456E-06</v>
       </c>
       <c r="T13">
-        <v>8.871361862699599E-07</v>
+        <v>1.103320574271456E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.419125199882072</v>
+        <v>0.425022</v>
       </c>
       <c r="H14">
-        <v>0.419125199882072</v>
+        <v>1.275066</v>
       </c>
       <c r="I14">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="J14">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N14">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O14">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P14">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q14">
-        <v>94.42401858289512</v>
+        <v>97.57852739564801</v>
       </c>
       <c r="R14">
-        <v>94.42401858289512</v>
+        <v>878.206746560832</v>
       </c>
       <c r="S14">
-        <v>0.0004674867446210792</v>
+        <v>0.0004653877867980899</v>
       </c>
       <c r="T14">
-        <v>0.0004674867446210792</v>
+        <v>0.0004653877867980899</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.419125199882072</v>
+        <v>0.425022</v>
       </c>
       <c r="H15">
-        <v>0.419125199882072</v>
+        <v>1.275066</v>
       </c>
       <c r="I15">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="J15">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N15">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O15">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P15">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q15">
-        <v>56.75976204565153</v>
+        <v>57.68752188136599</v>
       </c>
       <c r="R15">
-        <v>56.75976204565153</v>
+        <v>519.1876969322939</v>
       </c>
       <c r="S15">
-        <v>0.0002810136317264877</v>
+        <v>0.0002751329503608872</v>
       </c>
       <c r="T15">
-        <v>0.0002810136317264877</v>
+        <v>0.0002751329503608872</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.419125199882072</v>
+        <v>0.425022</v>
       </c>
       <c r="H16">
-        <v>0.419125199882072</v>
+        <v>1.275066</v>
       </c>
       <c r="I16">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="J16">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N16">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O16">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P16">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q16">
-        <v>35.59167292402909</v>
+        <v>38.35036763441001</v>
       </c>
       <c r="R16">
-        <v>35.59167292402909</v>
+        <v>345.1533087096901</v>
       </c>
       <c r="S16">
-        <v>0.0001762118956657777</v>
+        <v>0.0001829069693161529</v>
       </c>
       <c r="T16">
-        <v>0.0001762118956657777</v>
+        <v>0.0001829069693161529</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.419125199882072</v>
+        <v>0.425022</v>
       </c>
       <c r="H17">
-        <v>0.419125199882072</v>
+        <v>1.275066</v>
       </c>
       <c r="I17">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="J17">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.583017178823954</v>
+        <v>0.5972149999999999</v>
       </c>
       <c r="N17">
-        <v>0.583017178823954</v>
+        <v>1.791645</v>
       </c>
       <c r="O17">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="P17">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="Q17">
-        <v>0.2443571916092714</v>
+        <v>0.25382951373</v>
       </c>
       <c r="R17">
-        <v>0.2443571916092714</v>
+        <v>2.28446562357</v>
       </c>
       <c r="S17">
-        <v>1.209795449765585E-06</v>
+        <v>1.210606050036666E-06</v>
       </c>
       <c r="T17">
-        <v>1.209795449765585E-06</v>
+        <v>1.210606050036666E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>16.2240697702672</v>
+        <v>17.03711166666666</v>
       </c>
       <c r="H18">
-        <v>16.2240697702672</v>
+        <v>51.111335</v>
       </c>
       <c r="I18">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="J18">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N18">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O18">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P18">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q18">
-        <v>3655.093671077127</v>
+        <v>3911.459330360658</v>
       </c>
       <c r="R18">
-        <v>3655.093671077127</v>
+        <v>35203.13397324592</v>
       </c>
       <c r="S18">
-        <v>0.01809611439145514</v>
+        <v>0.01865518418336443</v>
       </c>
       <c r="T18">
-        <v>0.01809611439145514</v>
+        <v>0.01865518418336443</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>16.2240697702672</v>
+        <v>17.03711166666666</v>
       </c>
       <c r="H19">
-        <v>16.2240697702672</v>
+        <v>51.111335</v>
       </c>
       <c r="I19">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="J19">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N19">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O19">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P19">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q19">
-        <v>2197.134268785361</v>
+        <v>2312.418538490029</v>
       </c>
       <c r="R19">
-        <v>2197.134268785361</v>
+        <v>20811.76684641026</v>
       </c>
       <c r="S19">
-        <v>0.01087785885651713</v>
+        <v>0.0110287721540953</v>
       </c>
       <c r="T19">
-        <v>0.01087785885651713</v>
+        <v>0.0110287721540953</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.2240697702672</v>
+        <v>17.03711166666666</v>
       </c>
       <c r="H20">
-        <v>16.2240697702672</v>
+        <v>51.111335</v>
       </c>
       <c r="I20">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="J20">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N20">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O20">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P20">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q20">
-        <v>1377.731009546673</v>
+        <v>1537.28394258453</v>
       </c>
       <c r="R20">
-        <v>1377.731009546673</v>
+        <v>13835.55548326078</v>
       </c>
       <c r="S20">
-        <v>0.006821050345903836</v>
+        <v>0.007331870963975676</v>
       </c>
       <c r="T20">
-        <v>0.006821050345903836</v>
+        <v>0.007331870963975676</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.2240697702672</v>
+        <v>17.03711166666666</v>
       </c>
       <c r="H21">
-        <v>16.2240697702672</v>
+        <v>51.111335</v>
       </c>
       <c r="I21">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="J21">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.583017178823954</v>
+        <v>0.5972149999999999</v>
       </c>
       <c r="N21">
-        <v>0.583017178823954</v>
+        <v>1.791645</v>
       </c>
       <c r="O21">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="P21">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="Q21">
-        <v>9.458911386504179</v>
+        <v>10.17481864400833</v>
       </c>
       <c r="R21">
-        <v>9.458911386504179</v>
+        <v>91.57336779607499</v>
       </c>
       <c r="S21">
-        <v>4.683041198732804E-05</v>
+        <v>4.852744201198276E-05</v>
       </c>
       <c r="T21">
-        <v>4.683041198732804E-05</v>
+        <v>4.852744201198276E-05</v>
       </c>
     </row>
   </sheetData>
